--- a/doc/family-tレグレッションテスト仕様書.xlsx
+++ b/doc/family-tレグレッションテスト仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="110">
   <si>
     <t>大分類</t>
     <rPh sb="0" eb="3">
@@ -1365,6 +1365,10 @@
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1732,15 +1736,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G50"/>
+  <dimension ref="A2:G50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="29.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.5" style="1" bestFit="1" customWidth="1"/>
@@ -1748,7 +1752,10 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1775,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1786,7 +1796,10 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1817,10 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1838,10 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +1859,10 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1880,10 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1876,7 +1901,10 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +1922,10 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1912,7 +1943,10 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1930,7 +1964,10 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1948,7 +1985,10 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1966,7 +2006,10 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +2027,10 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2002,7 +2048,10 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -2020,7 +2069,10 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2038,7 +2090,10 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -2056,7 +2111,10 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2132,10 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2092,7 +2153,10 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -2110,7 +2174,10 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2128,7 +2195,10 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -2146,7 +2216,10 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
@@ -2164,7 +2237,10 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2258,10 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
@@ -2200,7 +2279,10 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
@@ -2218,7 +2300,10 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
@@ -2236,7 +2321,10 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +2342,10 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
@@ -2272,7 +2363,10 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
@@ -2290,7 +2384,10 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
@@ -2308,7 +2405,10 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
@@ -2326,7 +2426,10 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
@@ -2344,7 +2447,10 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2362,7 +2468,10 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
@@ -2380,7 +2489,10 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2398,7 +2510,10 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
@@ -2416,7 +2531,10 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
@@ -2434,7 +2552,10 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
@@ -2452,7 +2573,10 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
       <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
@@ -2470,7 +2594,10 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>44</v>
       </c>
@@ -2488,7 +2615,10 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2636,10 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
       </c>
@@ -2524,7 +2657,10 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2542,7 +2678,10 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
@@ -2560,7 +2699,10 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
@@ -2578,7 +2720,10 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2596,7 +2741,10 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
@@ -2614,7 +2762,8 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2631,15 +2780,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G50"/>
+  <dimension ref="A2:G50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="29.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.5" style="1" bestFit="1" customWidth="1"/>
@@ -2647,7 +2796,10 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2819,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2840,10 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2703,7 +2861,10 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>106</v>
       </c>
@@ -2721,7 +2882,10 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>106</v>
       </c>
@@ -2739,7 +2903,10 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>106</v>
       </c>
@@ -2757,7 +2924,10 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2775,7 +2945,10 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2793,7 +2966,10 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +2987,10 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2829,7 +3008,10 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2847,7 +3029,10 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2865,7 +3050,10 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2883,7 +3071,10 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2901,7 +3092,10 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -2919,7 +3113,10 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2937,7 +3134,10 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -2955,7 +3155,10 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
@@ -2973,7 +3176,10 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +3197,10 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3009,7 +3218,10 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -3027,7 +3239,10 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -3045,7 +3260,10 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
@@ -3063,7 +3281,10 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
@@ -3081,7 +3302,10 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
@@ -3099,7 +3323,10 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
@@ -3117,7 +3344,10 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
@@ -3135,7 +3365,10 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
@@ -3153,7 +3386,10 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3407,10 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
@@ -3189,7 +3428,10 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
@@ -3207,7 +3449,10 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
@@ -3225,7 +3470,10 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
@@ -3243,7 +3491,10 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
@@ -3261,7 +3512,10 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
@@ -3279,7 +3533,10 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
@@ -3297,7 +3554,10 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
@@ -3315,7 +3575,10 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
@@ -3333,7 +3596,10 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
@@ -3351,7 +3617,10 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
       <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
@@ -3369,7 +3638,10 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>44</v>
       </c>
@@ -3387,7 +3659,10 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
       </c>
@@ -3405,7 +3680,10 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
       </c>
@@ -3423,7 +3701,10 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -3441,7 +3722,10 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3743,10 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
@@ -3477,7 +3764,10 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
@@ -3495,7 +3785,10 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
@@ -3513,7 +3806,8 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
